--- a/Optimization Results/Optimization#2/Manual_Data_Collection1.xlsx
+++ b/Optimization Results/Optimization#2/Manual_Data_Collection1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludwig.Qi\Desktop\POON Lab first analysis\Testing Samecell,Different Exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterfu/Desktop/MitoLength/Optimization Results/Optimization#2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A653FE51-EA8A-462C-BFF9-C6567CFA478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695B9D1-C574-6741-A6B5-2C044F402638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CBDB258-2C88-4EF0-8981-38EEF6F8F76C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{8CBDB258-2C88-4EF0-8981-38EEF6F8F76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="8">
   <si>
     <t>Track</t>
   </si>
@@ -55,16 +55,30 @@
   <si>
     <t>None</t>
   </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,13 +104,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -110,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7FA67-D6E9-4F09-B44A-385137296B02}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="G294" sqref="G294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -447,8 +493,16 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" t="b">
+        <f>OR(AND(B2="None",C2&lt;&gt;"None"),AND(B2="None",C2&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <f>OR(AND(D2="None",E2&lt;&gt;"None"),AND(D2="None",E2&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -464,8 +518,16 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G66" si="0">OR(AND(B3="None",C3&lt;&gt;"None"),AND(B3="None",C3&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="1">OR(AND(D3="None",E3&lt;&gt;"None"),AND(D3="None",E3&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -481,8 +543,16 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -498,8 +568,16 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -515,8 +593,16 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -532,8 +618,16 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -549,8 +643,16 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -566,8 +668,16 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -583,8 +693,16 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -600,8 +718,16 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -617,8 +743,16 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -634,8 +768,16 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -651,8 +793,16 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -668,8 +818,16 @@
       <c r="E15">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -685,8 +843,16 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -702,8 +868,16 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -719,8 +893,16 @@
       <c r="E18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -736,8 +918,16 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -753,8 +943,16 @@
       <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -770,8 +968,16 @@
       <c r="E21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -787,8 +993,16 @@
       <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -804,8 +1018,16 @@
       <c r="E23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -821,8 +1043,16 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -838,8 +1068,16 @@
       <c r="E25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -855,8 +1093,16 @@
       <c r="E26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -872,8 +1118,16 @@
       <c r="E27">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -889,8 +1143,16 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -906,8 +1168,16 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -923,8 +1193,16 @@
       <c r="E30">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -940,8 +1218,16 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -957,8 +1243,16 @@
       <c r="E32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -974,8 +1268,16 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -991,8 +1293,16 @@
       <c r="E34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1008,8 +1318,16 @@
       <c r="E35">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1025,8 +1343,16 @@
       <c r="E36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1042,8 +1368,16 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1059,8 +1393,16 @@
       <c r="E38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1076,8 +1418,16 @@
       <c r="E39">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1093,8 +1443,16 @@
       <c r="E40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1110,16 +1468,24 @@
       <c r="E41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>5</v>
       </c>
       <c r="D42">
         <v>101</v>
@@ -1127,8 +1493,16 @@
       <c r="E42">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1144,8 +1518,16 @@
       <c r="E43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1161,8 +1543,16 @@
       <c r="E44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1178,8 +1568,16 @@
       <c r="E45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1195,8 +1593,16 @@
       <c r="E46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1212,8 +1618,16 @@
       <c r="E47">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1229,8 +1643,16 @@
       <c r="E48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1246,8 +1668,16 @@
       <c r="E49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1263,8 +1693,16 @@
       <c r="E50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1280,8 +1718,16 @@
       <c r="E51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1297,8 +1743,16 @@
       <c r="E52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1314,8 +1768,16 @@
       <c r="E53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1331,8 +1793,16 @@
       <c r="E54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1348,8 +1818,16 @@
       <c r="E55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1365,8 +1843,16 @@
       <c r="E56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1382,8 +1868,16 @@
       <c r="E57">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1399,8 +1893,16 @@
       <c r="E58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1416,8 +1918,16 @@
       <c r="E59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1433,8 +1943,16 @@
       <c r="E60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1450,8 +1968,16 @@
       <c r="E61">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1467,8 +1993,16 @@
       <c r="E62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1484,8 +2018,16 @@
       <c r="E63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1501,16 +2043,24 @@
       <c r="E64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>2</v>
+      <c r="C65" t="s">
+        <v>5</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1518,8 +2068,16 @@
       <c r="E65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1535,8 +2093,16 @@
       <c r="E66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1552,8 +2118,16 @@
       <c r="E67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" t="b">
+        <f t="shared" ref="G67:G130" si="2">OR(AND(B67="None",C67&lt;&gt;"None"),AND(B67="None",C67&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I130" si="3">OR(AND(D67="None",E67&lt;&gt;"None"),AND(D67="None",E67&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1569,8 +2143,16 @@
       <c r="E68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1586,8 +2168,16 @@
       <c r="E69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1603,8 +2193,16 @@
       <c r="E70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1620,8 +2218,16 @@
       <c r="E71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1637,8 +2243,16 @@
       <c r="E72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1654,8 +2268,16 @@
       <c r="E73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1671,8 +2293,16 @@
       <c r="E74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1688,8 +2318,16 @@
       <c r="E75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1705,15 +2343,23 @@
       <c r="E76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>131</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>135</v>
       </c>
       <c r="D77" t="s">
@@ -1722,8 +2368,19 @@
       <c r="E77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1739,8 +2396,16 @@
       <c r="E78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1756,8 +2421,16 @@
       <c r="E79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G79" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1773,8 +2446,16 @@
       <c r="E80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G80" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1790,8 +2471,16 @@
       <c r="E81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1807,8 +2496,16 @@
       <c r="E82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G82" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1824,8 +2521,16 @@
       <c r="E83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1841,8 +2546,16 @@
       <c r="E84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1858,8 +2571,16 @@
       <c r="E85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1875,8 +2596,16 @@
       <c r="E86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G86" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1892,8 +2621,16 @@
       <c r="E87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G87" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1909,8 +2646,16 @@
       <c r="E88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G88" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1926,8 +2671,16 @@
       <c r="E89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G89" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1943,8 +2696,16 @@
       <c r="E90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G90" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1960,8 +2721,16 @@
       <c r="E91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G91" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1977,8 +2746,16 @@
       <c r="E92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G92" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1994,8 +2771,16 @@
       <c r="E93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G93" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2011,8 +2796,16 @@
       <c r="E94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G94" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2028,8 +2821,16 @@
       <c r="E95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G95" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2045,8 +2846,16 @@
       <c r="E96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G96" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2062,8 +2871,16 @@
       <c r="E97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G97" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2079,8 +2896,16 @@
       <c r="E98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G98" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2096,8 +2921,16 @@
       <c r="E99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G99" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2113,8 +2946,16 @@
       <c r="E100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G100" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2130,8 +2971,16 @@
       <c r="E101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G101" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2147,8 +2996,16 @@
       <c r="E102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G102" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2164,8 +3021,16 @@
       <c r="E103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G103" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2181,8 +3046,16 @@
       <c r="E104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G104" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2198,8 +3071,16 @@
       <c r="E105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G105" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2215,8 +3096,16 @@
       <c r="E106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G106" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2232,8 +3121,16 @@
       <c r="E107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G107" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2249,8 +3146,16 @@
       <c r="E108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G108" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2266,8 +3171,16 @@
       <c r="E109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G109" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2283,8 +3196,16 @@
       <c r="E110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G110" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2300,8 +3221,16 @@
       <c r="E111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G111" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2317,8 +3246,16 @@
       <c r="E112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G112" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2334,8 +3271,16 @@
       <c r="E113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G113" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2351,8 +3296,16 @@
       <c r="E114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G114" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2368,8 +3321,16 @@
       <c r="E115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G115" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2385,8 +3346,16 @@
       <c r="E116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G116" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2402,8 +3371,16 @@
       <c r="E117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G117" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2419,8 +3396,16 @@
       <c r="E118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G118" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2436,8 +3421,16 @@
       <c r="E119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G119" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2453,8 +3446,16 @@
       <c r="E120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G120" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2470,8 +3471,16 @@
       <c r="E121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G121" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2487,25 +3496,44 @@
       <c r="E122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G122" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>58</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>60</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>87</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2521,8 +3549,16 @@
       <c r="E124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G124" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2538,8 +3574,16 @@
       <c r="E125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G125" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2555,8 +3599,16 @@
       <c r="E126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G126" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2572,8 +3624,16 @@
       <c r="E127" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G127" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2589,8 +3649,16 @@
       <c r="E128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G128" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2606,8 +3674,16 @@
       <c r="E129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G129" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2623,8 +3699,16 @@
       <c r="E130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G130" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2640,8 +3724,16 @@
       <c r="E131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G131" t="b">
+        <f t="shared" ref="G131:G194" si="4">OR(AND(B131="None",C131&lt;&gt;"None"),AND(B131="None",C131&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <f t="shared" ref="I131:I194" si="5">OR(AND(D131="None",E131&lt;&gt;"None"),AND(D131="None",E131&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2657,8 +3749,16 @@
       <c r="E132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G132" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2674,8 +3774,16 @@
       <c r="E133" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G133" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2691,8 +3799,16 @@
       <c r="E134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G134" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2708,8 +3824,16 @@
       <c r="E135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G135" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2725,8 +3849,16 @@
       <c r="E136" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G136" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2742,8 +3874,16 @@
       <c r="E137" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G137" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2759,8 +3899,16 @@
       <c r="E138" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G138" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2776,8 +3924,16 @@
       <c r="E139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G139" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2793,8 +3949,16 @@
       <c r="E140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G140" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2810,8 +3974,16 @@
       <c r="E141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G141" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2827,8 +3999,16 @@
       <c r="E142" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G142" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2844,8 +4024,16 @@
       <c r="E143" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G143" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2861,8 +4049,16 @@
       <c r="E144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G144" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2878,8 +4074,16 @@
       <c r="E145" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G145" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2895,8 +4099,16 @@
       <c r="E146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G146" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2912,8 +4124,16 @@
       <c r="E147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G147" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2929,8 +4149,16 @@
       <c r="E148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G148" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2946,8 +4174,16 @@
       <c r="E149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G149" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2963,8 +4199,16 @@
       <c r="E150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G150" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2980,8 +4224,16 @@
       <c r="E151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G151" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2997,8 +4249,16 @@
       <c r="E152" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G152" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3014,8 +4274,16 @@
       <c r="E153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G153" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3031,8 +4299,16 @@
       <c r="E154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G154" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3048,8 +4324,16 @@
       <c r="E155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G155" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3065,8 +4349,16 @@
       <c r="E156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G156" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3082,8 +4374,16 @@
       <c r="E157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G157" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3099,8 +4399,16 @@
       <c r="E158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G158" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -3116,8 +4424,16 @@
       <c r="E159" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G159" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3133,8 +4449,16 @@
       <c r="E160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G160" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3150,8 +4474,16 @@
       <c r="E161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G161" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3167,8 +4499,16 @@
       <c r="E162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G162" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3184,8 +4524,16 @@
       <c r="E163" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G163" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3201,8 +4549,16 @@
       <c r="E164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G164" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3218,8 +4574,16 @@
       <c r="E165" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G165" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3235,8 +4599,16 @@
       <c r="E166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G166" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3252,8 +4624,16 @@
       <c r="E167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G167" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3269,8 +4649,16 @@
       <c r="E168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G168" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3286,8 +4674,16 @@
       <c r="E169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G169" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3303,8 +4699,16 @@
       <c r="E170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G170" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3320,8 +4724,16 @@
       <c r="E171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G171" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -3337,8 +4749,16 @@
       <c r="E172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G172" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -3354,8 +4774,16 @@
       <c r="E173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G173" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -3371,8 +4799,16 @@
       <c r="E174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G174" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -3388,8 +4824,16 @@
       <c r="E175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G175" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -3405,8 +4849,16 @@
       <c r="E176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G176" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -3422,8 +4874,16 @@
       <c r="E177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G177" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -3439,8 +4899,16 @@
       <c r="E178" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G178" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -3456,8 +4924,16 @@
       <c r="E179" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G179" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -3473,8 +4949,16 @@
       <c r="E180" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G180" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -3490,8 +4974,16 @@
       <c r="E181" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G181" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -3507,8 +4999,16 @@
       <c r="E182" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G182" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -3524,8 +5024,16 @@
       <c r="E183" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G183" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -3541,8 +5049,16 @@
       <c r="E184" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G184" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -3558,8 +5074,16 @@
       <c r="E185" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G185" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -3575,8 +5099,16 @@
       <c r="E186" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G186" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -3592,8 +5124,16 @@
       <c r="E187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G187" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -3609,8 +5149,16 @@
       <c r="E188" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G188" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -3626,8 +5174,16 @@
       <c r="E189" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G189" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -3643,8 +5199,16 @@
       <c r="E190" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G190" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -3660,8 +5224,16 @@
       <c r="E191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G191" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -3677,8 +5249,16 @@
       <c r="E192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G192" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -3694,8 +5274,16 @@
       <c r="E193" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G193" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -3711,8 +5299,16 @@
       <c r="E194" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G194" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -3728,8 +5324,16 @@
       <c r="E195" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G195" t="b">
+        <f t="shared" ref="G195:G258" si="6">OR(AND(B195="None",C195&lt;&gt;"None"),AND(B195="None",C195&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <f t="shared" ref="I195:I258" si="7">OR(AND(D195="None",E195&lt;&gt;"None"),AND(D195="None",E195&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -3745,8 +5349,16 @@
       <c r="E196" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G196" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -3762,8 +5374,16 @@
       <c r="E197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G197" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -3779,8 +5399,16 @@
       <c r="E198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G198" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -3796,8 +5424,16 @@
       <c r="E199" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G199" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -3813,8 +5449,16 @@
       <c r="E200" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G200" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -3830,8 +5474,16 @@
       <c r="E201" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G201" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3847,8 +5499,16 @@
       <c r="E202" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G202" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -3864,8 +5524,16 @@
       <c r="E203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G203" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -3881,8 +5549,16 @@
       <c r="E204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G204" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -3898,8 +5574,16 @@
       <c r="E205" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G205" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -3915,8 +5599,16 @@
       <c r="E206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G206" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -3932,8 +5624,16 @@
       <c r="E207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G207" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -3949,8 +5649,16 @@
       <c r="E208" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G208" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -3966,8 +5674,16 @@
       <c r="E209" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G209" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -3983,8 +5699,16 @@
       <c r="E210" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G210" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4000,8 +5724,16 @@
       <c r="E211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G211" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4017,8 +5749,16 @@
       <c r="E212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G212" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4034,8 +5774,16 @@
       <c r="E213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G213" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4051,8 +5799,16 @@
       <c r="E214" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G214" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -4068,8 +5824,16 @@
       <c r="E215" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G215" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -4085,8 +5849,16 @@
       <c r="E216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G216" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -4102,8 +5874,16 @@
       <c r="E217" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G217" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -4119,8 +5899,16 @@
       <c r="E218" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G218" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -4136,8 +5924,16 @@
       <c r="E219" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G219" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -4153,8 +5949,16 @@
       <c r="E220" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G220" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -4170,8 +5974,16 @@
       <c r="E221" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G221" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -4187,8 +5999,16 @@
       <c r="E222" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G222" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -4204,8 +6024,16 @@
       <c r="E223" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G223" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -4221,8 +6049,16 @@
       <c r="E224" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G224" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -4238,8 +6074,16 @@
       <c r="E225" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G225" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -4255,8 +6099,16 @@
       <c r="E226" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G226" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -4272,8 +6124,16 @@
       <c r="E227" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G227" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -4289,8 +6149,16 @@
       <c r="E228" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G228" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -4306,8 +6174,16 @@
       <c r="E229" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G229" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -4323,8 +6199,16 @@
       <c r="E230" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G230" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -4340,8 +6224,16 @@
       <c r="E231" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G231" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -4357,8 +6249,16 @@
       <c r="E232" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G232" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -4374,8 +6274,16 @@
       <c r="E233" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G233" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -4391,8 +6299,16 @@
       <c r="E234" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G234" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -4408,8 +6324,16 @@
       <c r="E235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G235" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -4425,8 +6349,16 @@
       <c r="E236" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G236" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -4442,8 +6374,16 @@
       <c r="E237" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G237" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -4459,8 +6399,16 @@
       <c r="E238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G238" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -4476,8 +6424,16 @@
       <c r="E239" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G239" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -4493,8 +6449,16 @@
       <c r="E240" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G240" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -4510,8 +6474,16 @@
       <c r="E241" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G241" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -4527,8 +6499,16 @@
       <c r="E242" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G242" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -4544,8 +6524,16 @@
       <c r="E243" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G243" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -4561,8 +6549,16 @@
       <c r="E244" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G244" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -4578,8 +6574,16 @@
       <c r="E245" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G245" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -4595,8 +6599,16 @@
       <c r="E246" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G246" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -4612,8 +6624,16 @@
       <c r="E247" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G247" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -4629,8 +6649,16 @@
       <c r="E248" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G248" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -4646,8 +6674,16 @@
       <c r="E249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G249" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -4663,8 +6699,16 @@
       <c r="E250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G250" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -4680,8 +6724,16 @@
       <c r="E251" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G251" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -4697,8 +6749,16 @@
       <c r="E252" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G252" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -4714,8 +6774,16 @@
       <c r="E253" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G253" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -4731,8 +6799,16 @@
       <c r="E254" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G254" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -4748,8 +6824,16 @@
       <c r="E255" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G255" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -4765,8 +6849,16 @@
       <c r="E256" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G256" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -4782,8 +6874,16 @@
       <c r="E257" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G257" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -4799,8 +6899,16 @@
       <c r="E258" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G258" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -4816,8 +6924,16 @@
       <c r="E259" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G259" t="b">
+        <f t="shared" ref="G259:G294" si="8">OR(AND(B259="None",C259&lt;&gt;"None"),AND(B259="None",C259&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I259" t="b">
+        <f t="shared" ref="I259:I294" si="9">OR(AND(D259="None",E259&lt;&gt;"None"),AND(D259="None",E259&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -4833,8 +6949,16 @@
       <c r="E260" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G260" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -4850,8 +6974,16 @@
       <c r="E261" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G261" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -4867,8 +6999,16 @@
       <c r="E262" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G262" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -4884,8 +7024,16 @@
       <c r="E263" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G263" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -4901,8 +7049,16 @@
       <c r="E264" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G264" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -4918,8 +7074,16 @@
       <c r="E265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G265" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -4935,8 +7099,16 @@
       <c r="E266" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G266" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -4952,8 +7124,16 @@
       <c r="E267" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G267" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -4969,8 +7149,16 @@
       <c r="E268" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G268" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -4986,8 +7174,16 @@
       <c r="E269" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G269" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -5003,8 +7199,16 @@
       <c r="E270" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G270" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -5020,8 +7224,16 @@
       <c r="E271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G271" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -5037,8 +7249,16 @@
       <c r="E272" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G272" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -5054,8 +7274,16 @@
       <c r="E273" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G273" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -5071,8 +7299,16 @@
       <c r="E274" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G274" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -5088,8 +7324,16 @@
       <c r="E275" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G275" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -5105,8 +7349,16 @@
       <c r="E276" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G276" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -5122,8 +7374,16 @@
       <c r="E277" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G277" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -5139,8 +7399,16 @@
       <c r="E278" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G278" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -5156,8 +7424,16 @@
       <c r="E279" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G279" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -5173,8 +7449,16 @@
       <c r="E280" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G280" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -5190,8 +7474,16 @@
       <c r="E281" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G281" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -5207,8 +7499,16 @@
       <c r="E282" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G282" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -5224,8 +7524,16 @@
       <c r="E283" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G283" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -5241,8 +7549,16 @@
       <c r="E284" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G284" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -5258,8 +7574,16 @@
       <c r="E285" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G285" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -5275,8 +7599,16 @@
       <c r="E286" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G286" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -5292,8 +7624,16 @@
       <c r="E287" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G287" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -5309,8 +7649,16 @@
       <c r="E288" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G288" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -5326,8 +7674,16 @@
       <c r="E289" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G289" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -5343,8 +7699,16 @@
       <c r="E290" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G290" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -5360,8 +7724,16 @@
       <c r="E291" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G291" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -5377,8 +7749,16 @@
       <c r="E292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G292" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -5394,8 +7774,16 @@
       <c r="E293" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G293" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -5411,8 +7799,31 @@
       <c r="E294" t="s">
         <v>5</v>
       </c>
+      <c r="G294" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I294">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>